--- a/admin/upload.xlsx
+++ b/admin/upload.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/default/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fletchers365.sharepoint.com/sites/Finance/BookKeeping/Shared Documents/PAYROLL/PAYROLL-SALES/CURRENT 2018-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{9BDD8B65-BC17-41DA-8260-69434F5381B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{AA715A40-7D15-4F1E-AE33-2D4BD5E6EAE8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Agent</t>
   </si>
@@ -35,18 +36,12 @@
     <t>Salary/Commissions Paid (Net)</t>
   </si>
   <si>
-    <t>EOFY Bonus Comm</t>
-  </si>
-  <si>
     <t>Directors Allowance</t>
   </si>
   <si>
     <t>Directors Car Allowance</t>
   </si>
   <si>
-    <t>Team Mentoring Bonus</t>
-  </si>
-  <si>
     <t>RBB</t>
   </si>
   <si>
@@ -56,13 +51,175 @@
     <t>Directors Car Allowance Budget</t>
   </si>
   <si>
-    <t>Travel Allowance Budget</t>
+    <t>SJB</t>
+  </si>
+  <si>
+    <t>JAB</t>
+  </si>
+  <si>
+    <t>TLB</t>
+  </si>
+  <si>
+    <t>GJC</t>
+  </si>
+  <si>
+    <t>SJC</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>AKF</t>
+  </si>
+  <si>
+    <t>MNF</t>
+  </si>
+  <si>
+    <t>NBF</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>NJH</t>
+  </si>
+  <si>
+    <t>GPK</t>
+  </si>
+  <si>
+    <t>RWK</t>
+  </si>
+  <si>
+    <t>TKL</t>
+  </si>
+  <si>
+    <t>GRL</t>
+  </si>
+  <si>
+    <t>TGL</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>MDM</t>
+  </si>
+  <si>
+    <t>GHM</t>
+  </si>
+  <si>
+    <t>LKM</t>
+  </si>
+  <si>
+    <t>TBN</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>ALR</t>
+  </si>
+  <si>
+    <t>MCR</t>
+  </si>
+  <si>
+    <t>KXS</t>
+  </si>
+  <si>
+    <t>LRS</t>
+  </si>
+  <si>
+    <t>BAS</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>DPT</t>
+  </si>
+  <si>
+    <t>JAT</t>
+  </si>
+  <si>
+    <t>MKW</t>
+  </si>
+  <si>
+    <t>KYW</t>
+  </si>
+  <si>
+    <t>BEW</t>
+  </si>
+  <si>
+    <t>CXW</t>
+  </si>
+  <si>
+    <t>CAW</t>
+  </si>
+  <si>
+    <t>CHX</t>
+  </si>
+  <si>
+    <t>LBX</t>
+  </si>
+  <si>
+    <t>SAZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>DJB</t>
+  </si>
+  <si>
+    <t>JJD</t>
+  </si>
+  <si>
+    <t>TJH</t>
+  </si>
+  <si>
+    <t>DBK</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>JGS</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>RTW</t>
+  </si>
+  <si>
+    <t>RJW</t>
+  </si>
+  <si>
+    <t>BTW</t>
+  </si>
+  <si>
+    <t>Travel Award + FBT Costs</t>
+  </si>
+  <si>
+    <t>Travel Bonus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -74,20 +231,29 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,15 +265,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -115,6 +292,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -382,75 +562,1636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.1640625" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="22.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11" style="4"/>
+    <col min="10" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>55321</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>35371</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>76563</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>48914</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>96052</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <f>18100+52791</f>
+        <v>70891</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>167633</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>312591</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>76606</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>94538</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>33377</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>15837</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13436</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>107187.88</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>156515</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3">
+        <v>105029</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>80535</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>48981</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3">
+        <v>29321</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>73244.34</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3">
+        <v>124200</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3164</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
+        <v>160848</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44000</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3">
+        <v>16075</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3">
+        <v>65482</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3">
+        <v>49798</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>168865</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>64261</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3">
+        <v>57930</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3">
+        <v>37300</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3">
+        <v>14236</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3">
+        <v>41130</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3">
+        <v>103353</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="3">
+        <v>86167</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3">
+        <v>89230</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3">
+        <v>47480</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="3">
+        <v>151214</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3">
+        <v>114677</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="3">
+        <v>119033</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="3">
+        <v>78426</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="5">
+        <f>80409+213795</f>
+        <v>294204</v>
+      </c>
+      <c r="C44" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G44" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>101</v>
-      </c>
-      <c r="D2">
-        <v>102</v>
-      </c>
-      <c r="E2">
-        <v>103</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
+      <c r="B45" s="5">
+        <v>159588</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="5">
+        <v>31516</v>
+      </c>
+      <c r="C46" s="4">
+        <v>35328.959999999999</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>35328.959999999999</v>
+      </c>
+      <c r="G46" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="5">
+        <v>896156</v>
+      </c>
+      <c r="C47" s="4">
+        <v>35328.959999999999</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F47" s="4">
+        <v>35328.959999999999</v>
+      </c>
+      <c r="G47" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H47" s="4">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="5">
+        <v>371713</v>
+      </c>
+      <c r="C48" s="4">
+        <v>8034</v>
+      </c>
+      <c r="D48" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>8034</v>
+      </c>
+      <c r="G48" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="5">
+        <v>249192</v>
+      </c>
+      <c r="C49" s="4">
+        <v>21500</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>21500</v>
+      </c>
+      <c r="G49" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="5">
+        <v>96000</v>
+      </c>
+      <c r="C50" s="4">
+        <v>35328.959999999999</v>
+      </c>
+      <c r="D50" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>35328.959999999999</v>
+      </c>
+      <c r="G50" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="5">
+        <v>221825</v>
+      </c>
+      <c r="C51" s="4">
+        <v>21500</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E51" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F51" s="4">
+        <v>21500</v>
+      </c>
+      <c r="G51" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="5">
+        <v>177261</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="5">
+        <v>233316</v>
+      </c>
+      <c r="C53" s="4">
+        <v>35672.04</v>
+      </c>
+      <c r="D53" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>35672.04</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="5">
+        <v>310399</v>
+      </c>
+      <c r="C54" s="4">
+        <v>21500</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F54" s="4">
+        <v>21500</v>
+      </c>
+      <c r="G54" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080FCF72ED58B134184B0A8AE30ACA357" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cccc9ed330820335bba1d73d7c98dd53">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac887e9a-24a0-48c3-83dd-ca59d1eecc10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b834ce85e2c04792ad6ac6098ee849a4" ns2:_="">
+    <xsd:import namespace="ac887e9a-24a0-48c3-83dd-ca59d1eecc10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ac887e9a-24a0-48c3-83dd-ca59d1eecc10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F6F4659-C31B-4FAE-9F73-D661F2F5126A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac887e9a-24a0-48c3-83dd-ca59d1eecc10"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F987A8FB-2DD2-4B95-BB0B-D98AF1BE074B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ac887e9a-24a0-48c3-83dd-ca59d1eecc10"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F51C0A-9DC5-405B-B566-BCF149C6AB19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>